--- a/tests/testthat/testdata/test_extra_cols.xlsx
+++ b/tests/testthat/testdata/test_extra_cols.xlsx
@@ -1,50 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\osebno\ZaloznikM37\bekapiranje\DESEZONIRANJEfetchR\tests\testthat\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51714A08-7C6C-4D7A-AE0F-FD0F25B72CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="1500" yWindow="1695" windowWidth="23700" windowHeight="14055" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SA" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Orig" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="SA" sheetId="1" r:id="rId1"/>
+    <sheet name="Orig" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
-    <t xml:space="preserve">Extra Columns Test</t>
+    <t>Extra Columns Test</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">Col1</t>
+    <t>Col1</t>
   </si>
   <si>
-    <t xml:space="preserve">Col2</t>
+    <t>Col2</t>
   </si>
   <si>
-    <t xml:space="preserve">Col3_ShouldBeIgnored</t>
+    <t>Col3_ShouldBeIgnored</t>
   </si>
   <si>
-    <t xml:space="preserve">Col4_ShouldBeIgnored</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024M01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024M02</t>
+    <t>Col4_ShouldBeIgnored</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -73,13 +74,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -361,19 +372,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -390,60 +403,62 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B3">
         <v>100</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>200</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>300</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>400</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B4">
         <v>110</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>210</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>310</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>410</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -460,42 +475,42 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B3">
         <v>95</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>195</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>295</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>395</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B4">
         <v>105</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>205</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>305</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>405</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>